--- a/Proton Wolf Clan Collection/PWC Gen II.xlsx
+++ b/Proton Wolf Clan Collection/PWC Gen II.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KR61"/>
+  <dimension ref="A1:KR150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,44 +423,44 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="57" customWidth="1" min="3" max="3"/>
-    <col width="55" customWidth="1" min="4" max="4"/>
-    <col width="55" customWidth="1" min="5" max="5"/>
-    <col width="55" customWidth="1" min="6" max="6"/>
-    <col width="55" customWidth="1" min="7" max="7"/>
-    <col width="54" customWidth="1" min="8" max="8"/>
-    <col width="52" customWidth="1" min="9" max="9"/>
-    <col width="55" customWidth="1" min="10" max="10"/>
-    <col width="49" customWidth="1" min="11" max="11"/>
-    <col width="55" customWidth="1" min="12" max="12"/>
-    <col width="53" customWidth="1" min="13" max="13"/>
-    <col width="55" customWidth="1" min="14" max="14"/>
-    <col width="55" customWidth="1" min="15" max="15"/>
-    <col width="53" customWidth="1" min="16" max="16"/>
-    <col width="51" customWidth="1" min="17" max="17"/>
-    <col width="53" customWidth="1" min="18" max="18"/>
-    <col width="54" customWidth="1" min="19" max="19"/>
-    <col width="55" customWidth="1" min="20" max="20"/>
-    <col width="54" customWidth="1" min="21" max="21"/>
-    <col width="55" customWidth="1" min="22" max="22"/>
-    <col width="53" customWidth="1" min="23" max="23"/>
-    <col width="53" customWidth="1" min="24" max="24"/>
-    <col width="55" customWidth="1" min="25" max="25"/>
-    <col width="54" customWidth="1" min="26" max="26"/>
-    <col width="54" customWidth="1" min="27" max="27"/>
-    <col width="53" customWidth="1" min="28" max="28"/>
-    <col width="51" customWidth="1" min="29" max="29"/>
-    <col width="50" customWidth="1" min="30" max="30"/>
-    <col width="48" customWidth="1" min="31" max="31"/>
-    <col width="54" customWidth="1" min="32" max="32"/>
-    <col width="54" customWidth="1" min="33" max="33"/>
-    <col width="53" customWidth="1" min="34" max="34"/>
-    <col width="53" customWidth="1" min="35" max="35"/>
-    <col width="50" customWidth="1" min="36" max="36"/>
-    <col width="52" customWidth="1" min="37" max="37"/>
-    <col width="50" customWidth="1" min="38" max="38"/>
-    <col width="12" customWidth="1" min="302" max="302"/>
-    <col width="12" customWidth="1" min="303" max="303"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="49" customWidth="1" min="8" max="8"/>
+    <col width="51" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
+    <col width="44" customWidth="1" min="11" max="11"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
+    <col width="48" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
+    <col width="50" customWidth="1" min="15" max="15"/>
+    <col width="48" customWidth="1" min="16" max="16"/>
+    <col width="46" customWidth="1" min="17" max="17"/>
+    <col width="48" customWidth="1" min="18" max="18"/>
+    <col width="49" customWidth="1" min="19" max="19"/>
+    <col width="50" customWidth="1" min="20" max="20"/>
+    <col width="49" customWidth="1" min="21" max="21"/>
+    <col width="50" customWidth="1" min="22" max="22"/>
+    <col width="48" customWidth="1" min="23" max="23"/>
+    <col width="48" customWidth="1" min="24" max="24"/>
+    <col width="50" customWidth="1" min="25" max="25"/>
+    <col width="49" customWidth="1" min="26" max="26"/>
+    <col width="49" customWidth="1" min="27" max="27"/>
+    <col width="48" customWidth="1" min="28" max="28"/>
+    <col width="46" customWidth="1" min="29" max="29"/>
+    <col width="45" customWidth="1" min="30" max="30"/>
+    <col width="43" customWidth="1" min="31" max="31"/>
+    <col width="49" customWidth="1" min="32" max="32"/>
+    <col width="49" customWidth="1" min="33" max="33"/>
+    <col width="48" customWidth="1" min="34" max="34"/>
+    <col width="48" customWidth="1" min="35" max="35"/>
+    <col width="45" customWidth="1" min="36" max="36"/>
+    <col width="47" customWidth="1" min="37" max="37"/>
+    <col width="44" customWidth="1" min="38" max="38"/>
+    <col width="11" customWidth="1" min="39" max="39"/>
+    <col width="48" customWidth="1" min="303" max="303"/>
     <col width="12" customWidth="1" min="304" max="304"/>
   </cols>
   <sheetData>
@@ -477,197 +477,197 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>NFT 1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>NFT 2</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>NFT 3</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>NFT 4</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>NFT 5</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>NFT 6</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>NFT 7</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>NFT 8</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>NFT 9</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>NFT 10</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>NFT 11</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>NFT 12</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>NFT 13</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>NFT 14</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>NFT 15</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>NFT 16</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>NFT 17</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>NFT 18</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>NFT 19</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>NFT 20</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>NFT 21</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>NFT 22</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>NFT 23</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>NFT 24</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>NFT 25</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>NFT 26</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>NFT 27</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>NFT 28</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>NFT 29</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>NFT 30</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>NFT 31</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>NFT 32</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>NFT 33</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>NFT 34</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>NFT 35</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>NFT 36</t>
         </is>
       </c>
-      <c r="KP1" t="inlineStr">
+      <c r="KQ1" t="inlineStr">
         <is>
           <t>NFT 300</t>
         </is>
       </c>
-      <c r="KQ1" t="inlineStr">
+      <c r="KR1" t="inlineStr">
         <is>
           <t>NFT 301</t>
-        </is>
-      </c>
-      <c r="KR1" t="inlineStr">
-        <is>
-          <t>NFT 302</t>
         </is>
       </c>
     </row>
@@ -680,184 +680,182 @@
       <c r="B2" t="n">
         <v>300</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #66 Night Squad | ULTRA EPIC (#1)</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #100 Strikers | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #100 Strikers | RARE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #99 Strikers | EPIC (#1)</t>
+          <t>Proton Wolf Clan 2  #99 Strikers | EPIC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #94 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #94 Strikers | COMMON</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #93 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #93 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #86 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #86 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #84 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #84 Strikers | COMMON</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #83 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #83 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #80 Strikers | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #80 Strikers | RARE</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #72 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #72 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #70 Blood Hunger | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #70 Blood Hunger | RARE</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #68 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #68 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #67 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #67 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #59 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #59 Strikers | COMMON</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #54 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #54 Strikers | COMMON</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #50 Blood Hunger | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #50 Blood Hunger | RARE</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #46 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #46 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #43 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #43 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #41 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #41 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #38 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #38 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #35 Bone Crusher | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #35 Bone Crusher | RARE</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #33 Bone Crusher | EPIC (#1)</t>
+          <t>Proton Wolf Clan 2  #33 Bone Crusher | EPIC</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #32 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #32 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #31 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #31 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #27 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #27 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #26 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #26 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #25 Night Squad | RARE (#1)</t>
+          <t>Proton Wolf Clan 2 #25 Night Squad | RARE</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #24 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #24 Strikers | COMMON</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #20 Strikers | RARE (#1)</t>
+          <t>Proton Wolf Clan 2 #20 Strikers | RARE</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #13 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #13 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #12 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #12 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #11 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #11 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #7 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #7 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #5 Night Squad | RARE (#1)</t>
+          <t>Proton Wolf Clan 2 #5 Night Squad | RARE</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #1 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #1 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#20)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -870,74 +868,72 @@
       <c r="B3" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #97 Blood Hunger | COMMON (#1)</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #91 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #91 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #87 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #87 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #82 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #82 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #74 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #74 Strikers | COMMON</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #60 Strikers | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #60 Strikers | RARE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #44 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #44 Strikers | COMMON</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #42 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #42 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #40 Strikers | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #40 Strikers | RARE</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #28 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #28 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #21 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #21 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #18 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #18 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #16 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #16 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #8 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #8 Bone Crusher | COMMON</t>
         </is>
       </c>
     </row>
@@ -950,34 +946,32 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #79 Strikers | COMMON (#1)</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #53 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #53 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #34 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #34 Strikers | COMMON</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #22 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #22 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #19 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #19 Strikers | COMMON</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#6)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -990,29 +984,27 @@
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #62 Blood Hunger | HEROIC (#1)</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #71 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #71 Night Squad | COMMON</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #49 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #49 Strikers | COMMON</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #23 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #23 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#2)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1025,124 +1017,116 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #95 Bone Crusher | RARE (#1)</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #75 Bone Crusher | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #75 Bone Crusher | RARE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #17 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #17 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#1)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sprite</t>
+          <t>rmwill22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #112 Blood Hunger | COMMON (#1)</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #111 Blood Hunger | EPIC (#1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #110 Blood Hunger | RARE (#1)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #81 Night Squad | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #76 Night Squad | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #69 Strikers | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #65 Night Squad | RARE (#1)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#5)</t>
+          <t>Proton Wolf Clan 2 #15 Bone Crusher | RARE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sugabaydiw</t>
+          <t>sprite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #85 Night Squad | RARE (#1)</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #78 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #111 Blood Hunger | EPIC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #58 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #110 Blood Hunger | RARE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#24)</t>
+          <t>Proton Wolf Clan 2  #81 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #76 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #69 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #65 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rmwill22</t>
+          <t>sugabaydiw</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #88 Bone Crusher | COMMON (#1)</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #15 Bone Crusher | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #78 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #58 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1155,79 +1139,73 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #56 Night Squad | COMMON (#1)</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #36 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #36 Night Squad | COMMON</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nazr</t>
+          <t>dannymarshal</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #30 Blood Hunger | RARE (#1)</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #29 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #98 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#12)</t>
+          <t>Proton Wolf Clan 2  #92 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #61 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #6 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dannymarshal</t>
+          <t>nazr</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #47 Blood Hunger | COMMON (#1)</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #98 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #29 Strikers | COMMON</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #92 Blood Hunger | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #61 Night Squad | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #6 Night Squad | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#30)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1240,19 +1218,17 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #96 Night Squad | RARE (#1)</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #45 Night Squad | RARE (#1)</t>
+          <t>Proton Wolf Clan 2  #45 Night Squad | RARE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#7)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1265,34 +1241,32 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #77 Blood Hunger | EPIC (#1)</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #73 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #73 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #63 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #63 Bone Crusher | COMMON</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #52 Blood Hunger | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #52 Blood Hunger | COMMON</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #9 Strikers | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #9 Strikers | COMMON</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #3 Bone Crusher | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2 #3 Bone Crusher | COMMON</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1281,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #51 Night Squad | COMMON (#1)</t>
+          <t>Proton Wolf Clan 2  #51 Night Squad | COMMON</t>
         </is>
       </c>
     </row>
@@ -1320,14 +1294,12 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #37 Blood Hunger | COMMON (#1)</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#4)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1340,19 +1312,17 @@
       <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #4 Strikers | COMMON (#1)</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#33)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#28)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1365,48 +1335,58 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #48 Bone Crusher | COMMON (#1)</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#15)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="19"/>
-    <row r="20"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>xyoshi1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #14 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xyoshi1</t>
+          <t>almonds</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #89 Strikers | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #14 Strikers | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#31)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>almonds</t>
+          <t>jgrill</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1414,7 +1394,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#23)</t>
+          <t>Proton Wolf Clan 2  #39 Strikers | COMMON</t>
         </is>
       </c>
     </row>
@@ -1427,131 +1407,113 @@
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #64 Strikers | COMMON (#1)</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>cryptosavage</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#22)</t>
-        </is>
-      </c>
-    </row>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25"/>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>jgrill</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #39 Strikers | COMMON (#1)</t>
-        </is>
-      </c>
-    </row>
+    <row r="26"/>
     <row r="27"/>
     <row r="28"/>
     <row r="29"/>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pwcvalve</t>
+          <t>cryptosavage</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2  #62 Blood Hunger | COMMON (#1)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #55 Bone Crusher | RARE (#1)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #10 Blood Hunger | RARE (#1)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
     <row r="31"/>
-    <row r="32"/>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>onisan12</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #101 Night Squad | COMMON</t>
+        </is>
+      </c>
+    </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>pwcvalve</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #55 Bone Crusher | RARE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #10 Blood Hunger | RARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>zactaylor</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #57 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>cryptosid21</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>onisan12</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #101 Night Squad | COMMON (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>zactaylor</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2  #57 Blood Hunger | COMMON (#1)</t>
-        </is>
-      </c>
-    </row>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37"/>
     <row r="38"/>
     <row r="39"/>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>atomicmarket</t>
+          <t>nestzura</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1559,109 +1521,67 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>billbgo</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#19)</t>
-        </is>
-      </c>
-    </row>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
     <row r="42"/>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>atomicmarket</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>billbgo</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>cryptobricks</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ingridkilian</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#27)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47"/>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>magicsparks</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#13)</t>
-        </is>
-      </c>
-    </row>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="48"/>
     <row r="49"/>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>maxrene</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>nestzura</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#9)</t>
-        </is>
-      </c>
-    </row>
+    <row r="50"/>
+    <row r="51"/>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>nnjarkaz</t>
+          <t>ingridkilian</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1669,44 +1589,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>riliff</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #102 Blood Hunger | COMMON (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>shrijan</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#26)</t>
-        </is>
-      </c>
-    </row>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54"/>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sonic12</t>
+          <t>magicsparks</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1714,29 +1606,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#32)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>subi</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#18)</t>
-        </is>
-      </c>
-    </row>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="56"/>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>syahrulhanif</t>
+          <t>maxrene</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1744,7 +1622,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#21)</t>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
         </is>
       </c>
     </row>
@@ -1752,34 +1630,1265 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>nnjarkaz</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>riliff</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #102 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>shrijan</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sonic12</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>subi</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>syahrulhanif</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>tzunoi</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#29)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>vishal</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Proton Wolf Clan 2 #0 | Special Edition (#17)</t>
-        </is>
-      </c>
-    </row>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>protonwolfcl</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>301</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #108 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #107 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #106 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #105 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #104 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #103 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="KQ76" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #90 Blood Hunger | RARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>gyasi</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>300</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #100 Strikers | RARE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #99 Strikers | EPIC</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #94 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #93 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #86 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #84 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #83 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #80 Strikers | RARE</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #72 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #70 Blood Hunger | RARE</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #68 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #67 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #59 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #54 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #50 Blood Hunger | RARE</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #46 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #43 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #41 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #38 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #35 Bone Crusher | RARE</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #33 Bone Crusher | EPIC</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #32 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #31 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #27 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #26 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #25 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #24 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #20 Strikers | RARE</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #13 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #12 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #11 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #7 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #5 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #1 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>cryptofaith</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #91 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #87 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #82 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #74 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #60 Strikers | RARE</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #44 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #42 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #40 Strikers | RARE</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #28 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #21 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #18 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #16 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #8 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>tahmas</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #53 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #34 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #22 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #19 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>anderson22</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #71 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #49 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #23 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mrcobra</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #75 Bone Crusher | RARE</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #17 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rmwill22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #15 Bone Crusher | RARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #111 Blood Hunger | EPIC</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #110 Blood Hunger | RARE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #81 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #76 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #69 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #65 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sugabaydiw</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #78 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #58 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>delaneyrp</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #36 Night Squad | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>dannymarshal</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #98 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #92 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #61 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #6 Night Squad | COMMON</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>nazr</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #29 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eugenetwh</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #45 Night Squad | RARE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>nathancrypto</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #73 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #63 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #52 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #9 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #3 Bone Crusher | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>csongor</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #51 Night Squad | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>jayang</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>thomassilva</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>aaronniew</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>xyoshi1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #14 Strikers | COMMON</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>almonds</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>jgrill</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #39 Strikers | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>lipilori15</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cryptosavage</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>onisan12</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #101 Night Squad | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>pwcvalve</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #55 Bone Crusher | RARE</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #10 Blood Hunger | RARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>zactaylor</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2  #57 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>cryptosid21</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>nestzura</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>atomicmarket</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>billbgo</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="121"/>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>cryptobricks</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ingridkilian</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>magicsparks</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="131"/>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>maxrene</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>nnjarkaz</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>riliff</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #102 Blood Hunger | COMMON</t>
+        </is>
+      </c>
+    </row>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>shrijan</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>sonic12</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>subi</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>syahrulhanif</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="145"/>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>tzunoi</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>vishal</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Proton Wolf Clan 2 #0 | Special Edition</t>
+        </is>
+      </c>
+    </row>
+    <row r="149"/>
+    <row r="150"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
